--- a/observeddata/Ebola_Incidence_Data_Empty.xlsx
+++ b/observeddata/Ebola_Incidence_Data_Empty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\observeddata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A9E5FA-BDC3-4003-B47D-3743CAF7E7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93307F61-BFE2-4759-A113-E479A613960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33330" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidence" sheetId="1" r:id="rId1"/>
@@ -525,10 +525,10 @@
   <dimension ref="A1:AD100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:AD76"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
